--- a/medicine/Enfance/Audrey_Erskine_Lindop/Audrey_Erskine_Lindop.xlsx
+++ b/medicine/Enfance/Audrey_Erskine_Lindop/Audrey_Erskine_Lindop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Audrey Erskine Lindop, née le 26 décembre 1920 à Londres et morte le 7 novembre 1986 sur l’Île de Wight, est une écrivaine britannique, auteur de littérature populaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle épouse le dramaturge et scénariste londonien Dudley Leslie (1905-1998).
 Elle obtient le grand prix de littérature policière en 1967 pour Comptes à rebours (I Start Counting).
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Fortune My Foe (1947)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fortune My Foe (1947)
 Soldiers' Daughters Never Cry (1948)
 The Tall Headlines (1950) Publié en français sous le titre Manchettes à sensation, traduit par Max Roth, Paris, Éditions Flammarion, 1952, 253 p. (BNF 32386924)
 Out of the Whirlwind (1952)
@@ -561,9 +580,7 @@
 Sight Unseen (1969)
 Journey Into Stone (1972)
 The Self-Appointed Saint (1975)
-In Me My Enemy (1979)
-Littérature d'enfance et de jeunesse
-The Adventures of the Wuffle (1966)</t>
+In Me My Enemy (1979)</t>
         </is>
       </c>
     </row>
@@ -588,12 +605,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Adventures of the Wuffle (1966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Audrey_Erskine_Lindop</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Audrey_Erskine_Lindop</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Grand prix de littérature policière 1967 pour Comptes à rebours[1]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Grand prix de littérature policière 1967 pour Comptes à rebours</t>
         </is>
       </c>
     </row>
